--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面_rev.2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS40301_図面登録依頼詳細画面_rev.2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E22541-51F6-449D-860B-C9AF3F379AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E756C44-F7FC-4649-9C96-347310818974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1094,6 +1094,17 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1441,6 +1452,99 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,99 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1869,180 +1880,180 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="42"/>
+    <col min="1" max="1" width="3.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="28" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="51" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A2" s="43">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="31">
         <v>45553</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" s="55" customFormat="1" ht="23.15" x14ac:dyDescent="0.65">
-      <c r="A3" s="43">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="36">
         <v>45616</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A4" s="43">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A5" s="43">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A6" s="43">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A7" s="43">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A8" s="43">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A9" s="43">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A10" s="58">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="44">
         <v>9</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A11" s="43">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A12" s="43">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="C13" s="64"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2055,42 +2066,42 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="46.85546875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="46.875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="17" t="s">
         <v>76</v>
       </c>
@@ -2101,11 +2112,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
@@ -2117,27 +2128,27 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -2147,14 +2158,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -2174,7 +2185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2203,16 +2214,16 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="53" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="11"/>
@@ -2222,15 +2233,21 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="14">
+        <v>45643</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2259,7 +2276,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2284,7 +2301,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2309,7 +2326,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2334,7 +2351,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2359,7 +2376,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2384,7 +2401,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2411,7 +2428,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2438,7 +2455,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2463,7 +2480,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -2488,7 +2505,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -2515,7 +2532,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -2540,7 +2557,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -2565,7 +2582,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -2590,7 +2607,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -2617,7 +2634,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2642,7 +2659,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -2667,7 +2684,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -2692,7 +2709,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -2717,7 +2734,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -2746,7 +2763,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -2777,7 +2794,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -2804,7 +2821,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -2829,7 +2846,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -2854,7 +2871,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -2879,7 +2896,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -2904,7 +2921,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -2929,7 +2946,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -3195,15 +3212,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -3214,14 +3222,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F35DC306-2F83-4774-89A4-D7CD306C6AE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F35DC306-2F83-4774-89A4-D7CD306C6AE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74FCED9B-F831-4633-851E-0E5F6739D240}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F130A8A2-D35C-4298-9738-186C5F6A5AD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F130A8A2-D35C-4298-9738-186C5F6A5AD3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74FCED9B-F831-4633-851E-0E5F6739D240}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>